--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajad\Desktop\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D5A67-573C-43C3-A2D2-3B7F8E5F76EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B7FEAF-FF90-42AF-8244-50171BE72C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10824" yWindow="7404" windowWidth="10332" windowHeight="4836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,16 +54,10 @@
     <t>htmlactivity</t>
   </si>
   <si>
-    <t>ou collaborate</t>
-  </si>
-  <si>
     <t>ou content</t>
   </si>
   <si>
     <t>ou elluminate</t>
-  </si>
-  <si>
-    <t>ou wiki</t>
   </si>
   <si>
     <t>page</t>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>resource</t>
-  </si>
-  <si>
-    <t>shared subpage</t>
   </si>
   <si>
     <t>subpage</t>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>Distinction</t>
+  </si>
+  <si>
+    <t>oucollaborate</t>
+  </si>
+  <si>
+    <t>ouwiki</t>
+  </si>
+  <si>
+    <t>sharedsubpage</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:W100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,46 +483,46 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="W6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="W11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="W39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -3930,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="W49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="W92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
